--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value787.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value787.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.309622944204746</v>
+        <v>1.79115355014801</v>
       </c>
       <c r="B1">
-        <v>3.608470199498741</v>
+        <v>4.305760383605957</v>
       </c>
       <c r="C1">
-        <v>3.049698970180526</v>
+        <v>1.720344424247742</v>
       </c>
       <c r="D1">
-        <v>2.135772028977581</v>
+        <v>0.8724375367164612</v>
       </c>
       <c r="E1">
-        <v>1.215252984472185</v>
+        <v>0.4707854688167572</v>
       </c>
     </row>
   </sheetData>
